--- a/data/trans_orig/P43D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F3FEC0-0E03-41A2-8436-6AC1E3C981F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3C9E596-DD21-4CF2-B9FD-5DEDC730A211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F73F7685-DA10-4EB7-B7BD-5650D9CD39F8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C432436E-0C98-4544-AC1C-E2A39C19496C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="302">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>22,58%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>36,64%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>24,07%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,10 +116,10 @@
     <t>16,71%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,37 +131,37 @@
     <t>25,21%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
   </si>
   <si>
     <t>22,61%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -170,760 +170,781 @@
     <t>25,57%</t>
   </si>
   <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>13,64%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
+    <t>28,71%</t>
   </si>
   <si>
     <t>33,56%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>12,38%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98D87AC-ADCA-4AD4-A45E-233191DEA366}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2346BBB5-018E-4C6E-8ABD-C3343F3045E5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2900,7 +2921,7 @@
         <v>1730</v>
       </c>
       <c r="I33" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -2915,7 +2936,7 @@
         <v>1730</v>
       </c>
       <c r="N33" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -2950,7 +2971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40986912-E2DC-4BC3-8665-DB3B77DFB1BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE928BE-4468-47B0-B1C2-C712C2EC952B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3139,10 +3160,10 @@
         <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3154,10 +3175,10 @@
         <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3206,13 @@
         <v>10995</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3200,13 +3221,13 @@
         <v>10995</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3255,13 @@
         <v>8955</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3249,13 +3270,13 @@
         <v>8955</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3355,13 @@
         <v>83816</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>77</v>
@@ -3349,13 +3370,13 @@
         <v>83816</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,7 +3608,7 @@
         <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -3602,7 +3623,7 @@
         <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3651,13 @@
         <v>251065</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M15" s="7">
         <v>228</v>
@@ -3645,13 +3666,13 @@
         <v>251065</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3700,13 @@
         <v>175192</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -3694,13 +3715,13 @@
         <v>175192</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3749,13 @@
         <v>121703</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -3743,13 +3764,13 @@
         <v>121703</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3849,13 @@
         <v>81020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -3843,13 +3864,13 @@
         <v>81020</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3898,13 @@
         <v>171664</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>151</v>
@@ -3892,13 +3913,13 @@
         <v>171664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3947,13 @@
         <v>169108</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -3941,13 +3962,13 @@
         <v>169108</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3996,13 @@
         <v>117968</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -3990,13 +4011,13 @@
         <v>117968</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4096,13 @@
         <v>149163</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -4090,13 +4111,13 @@
         <v>149163</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4145,13 @@
         <v>231625</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>225</v>
@@ -4139,13 +4160,13 @@
         <v>231625</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4194,13 @@
         <v>175982</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>164</v>
@@ -4188,13 +4209,13 @@
         <v>175982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4243,13 @@
         <v>102357</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M27" s="7">
         <v>94</v>
@@ -4237,13 +4258,13 @@
         <v>102357</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4343,13 @@
         <v>446289</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>411</v>
@@ -4337,13 +4358,13 @@
         <v>446289</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4392,13 @@
         <v>790350</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>731</v>
@@ -4386,13 +4407,13 @@
         <v>790350</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4441,13 @@
         <v>638729</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>586</v>
@@ -4435,13 +4456,13 @@
         <v>638729</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4490,13 @@
         <v>414556</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M32" s="7">
         <v>376</v>
@@ -4484,13 +4505,13 @@
         <v>414556</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,7 +4586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE7F985-0D66-4723-B943-7811955B61C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86880F97-F363-4F2A-81A2-10B8141195AA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4582,7 +4603,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4702,13 +4723,13 @@
         <v>16265</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4717,13 +4738,13 @@
         <v>16265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4772,13 @@
         <v>27816</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -4766,13 +4787,13 @@
         <v>27816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4821,13 @@
         <v>14725</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4815,13 +4836,13 @@
         <v>14725</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4870,13 @@
         <v>8717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4864,13 +4885,13 @@
         <v>8717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4970,13 @@
         <v>66415</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
@@ -4964,13 +4985,13 @@
         <v>66415</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5019,13 @@
         <v>129694</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -5013,13 +5034,13 @@
         <v>129694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5068,13 @@
         <v>64719</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -5062,13 +5083,13 @@
         <v>64719</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5117,13 @@
         <v>42174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -5111,13 +5132,13 @@
         <v>42174</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5217,13 @@
         <v>155269</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>142</v>
@@ -5211,13 +5232,13 @@
         <v>155269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5266,13 @@
         <v>285822</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M15" s="7">
         <v>270</v>
@@ -5260,13 +5281,13 @@
         <v>285822</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5315,13 @@
         <v>153589</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -5309,13 +5330,13 @@
         <v>153589</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5364,13 @@
         <v>72167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5358,13 +5379,13 @@
         <v>72167</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5464,13 @@
         <v>117459</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -5458,13 +5479,13 @@
         <v>117459</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5513,13 @@
         <v>212351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" s="7">
         <v>203</v>
@@ -5507,13 +5528,13 @@
         <v>212351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5562,13 @@
         <v>115227</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -5556,13 +5577,13 @@
         <v>115227</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5611,13 @@
         <v>61931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -5605,13 +5626,13 @@
         <v>61931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5711,13 @@
         <v>175519</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" s="7">
         <v>157</v>
@@ -5705,13 +5726,13 @@
         <v>175519</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5760,13 @@
         <v>275514</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" s="7">
         <v>260</v>
@@ -5754,13 +5775,13 @@
         <v>275514</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5809,13 @@
         <v>145979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>135</v>
@@ -5803,13 +5824,13 @@
         <v>145979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5858,13 @@
         <v>97732</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M27" s="7">
         <v>90</v>
@@ -5852,13 +5873,13 @@
         <v>97732</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5958,13 @@
         <v>530927</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>484</v>
@@ -5952,13 +5973,13 @@
         <v>530927</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +6007,13 @@
         <v>931197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M30" s="7">
         <v>888</v>
@@ -6001,13 +6022,13 @@
         <v>931197</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6056,13 @@
         <v>494240</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M31" s="7">
         <v>478</v>
@@ -6050,13 +6071,13 @@
         <v>494240</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6105,13 @@
         <v>282721</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>270</v>
@@ -6099,13 +6120,13 @@
         <v>282721</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,7 +6201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0151C8F-C8C4-4E03-8853-046431F75B72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E207B-7F6F-4891-B78F-04AC732F64CC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6197,7 +6218,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6317,13 +6338,13 @@
         <v>21438</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -6332,13 +6353,13 @@
         <v>21438</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6387,13 @@
         <v>14159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -6381,13 +6402,13 @@
         <v>14159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +6436,13 @@
         <v>9564</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -6430,13 +6451,13 @@
         <v>9564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6485,13 @@
         <v>7801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -6479,13 +6500,13 @@
         <v>7801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6585,13 @@
         <v>67824</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M9" s="7">
         <v>132</v>
@@ -6579,13 +6600,13 @@
         <v>67824</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +6634,13 @@
         <v>87482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -6628,13 +6649,13 @@
         <v>87482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,13 +6683,13 @@
         <v>49490</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -6677,13 +6698,13 @@
         <v>49490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6732,13 @@
         <v>24156</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>38</v>
@@ -6726,13 +6747,13 @@
         <v>24156</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6832,13 @@
         <v>110043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -6826,13 +6847,13 @@
         <v>110043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +6881,13 @@
         <v>159613</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="M15" s="7">
         <v>244</v>
@@ -6875,13 +6896,13 @@
         <v>159613</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +6930,13 @@
         <v>97088</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -6924,13 +6945,13 @@
         <v>97088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,13 +6979,13 @@
         <v>44903</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -6973,13 +6994,13 @@
         <v>44903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,13 +7079,13 @@
         <v>114551</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -7073,13 +7094,13 @@
         <v>114551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7128,13 @@
         <v>112504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -7122,13 +7143,13 @@
         <v>112504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7177,13 @@
         <v>74384</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>114</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>102</v>
@@ -7171,13 +7192,13 @@
         <v>74384</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>114</v>
+        <v>276</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7226,13 @@
         <v>53135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -7220,13 +7241,13 @@
         <v>53135</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7326,13 @@
         <v>181293</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M24" s="7">
         <v>273</v>
@@ -7320,13 +7341,13 @@
         <v>181293</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,13 +7375,13 @@
         <v>165473</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -7369,13 +7390,13 @@
         <v>165473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7424,13 @@
         <v>117745</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M26" s="7">
         <v>157</v>
@@ -7418,13 +7439,13 @@
         <v>117745</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +7473,13 @@
         <v>94198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>127</v>
@@ -7467,13 +7488,13 @@
         <v>94198</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7573,13 @@
         <v>495148</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
       <c r="M29" s="7">
         <v>798</v>
@@ -7567,13 +7588,13 @@
         <v>495148</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7601,13 +7622,13 @@
         <v>539232</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M30" s="7">
         <v>808</v>
@@ -7616,13 +7637,13 @@
         <v>539232</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7671,13 @@
         <v>348271</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M31" s="7">
         <v>490</v>
@@ -7665,13 +7686,13 @@
         <v>348271</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,13 +7720,13 @@
         <v>224194</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="M32" s="7">
         <v>314</v>
@@ -7714,13 +7735,13 @@
         <v>224194</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>148</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3C9E596-DD21-4CF2-B9FD-5DEDC730A211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E73D765-D4A1-4441-BD64-6808B90C6132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C432436E-0C98-4544-AC1C-E2A39C19496C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2299FAFA-11B8-48BB-99E5-AC3CE187D7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="301">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -80,10 +80,10 @@
     <t>22,58%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>36,64%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>24,07%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,808 +116,805 @@
     <t>16,71%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
   </si>
   <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>22,61%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>25,57%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
   </si>
   <si>
     <t>31,07%</t>
   </si>
   <si>
-    <t>27,24%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
   </si>
   <si>
     <t>33,56%</t>
@@ -1356,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2346BBB5-018E-4C6E-8ABD-C3343F3045E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502FEADB-5613-4F69-8ED2-F26A3455D11E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2536,7 +2533,7 @@
         <v>72</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>188</v>
@@ -2551,7 +2548,7 @@
         <v>72</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2576,13 @@
         <v>151575</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M26" s="7">
         <v>146</v>
@@ -2594,13 +2591,13 @@
         <v>151575</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2625,13 @@
         <v>123467</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M27" s="7">
         <v>115</v>
@@ -2643,13 +2640,13 @@
         <v>123467</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2725,13 @@
         <v>421540</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M29" s="7">
         <v>410</v>
@@ -2743,13 +2740,13 @@
         <v>421540</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2774,13 @@
         <v>554054</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M30" s="7">
         <v>542</v>
@@ -2792,13 +2789,13 @@
         <v>554054</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2823,13 @@
         <v>471680</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M31" s="7">
         <v>460</v>
@@ -2841,13 +2838,13 @@
         <v>471680</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2872,13 @@
         <v>331836</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M32" s="7">
         <v>318</v>
@@ -2890,13 +2887,13 @@
         <v>331836</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,7 +2918,7 @@
         <v>1730</v>
       </c>
       <c r="I33" s="7">
-        <v>1779109</v>
+        <v>1779110</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -2936,7 +2933,7 @@
         <v>1730</v>
       </c>
       <c r="N33" s="7">
-        <v>1779109</v>
+        <v>1779110</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -2950,7 +2947,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE928BE-4468-47B0-B1C2-C712C2EC952B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BD99A0-66BA-430A-B1C1-19FE8D900070}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2988,7 +2985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3108,13 +3105,13 @@
         <v>20252</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3123,13 +3120,13 @@
         <v>20252</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,10 +3154,10 @@
         <v>22552</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>98</v>
@@ -3172,10 +3169,10 @@
         <v>22552</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>98</v>
@@ -3953,7 +3950,7 @@
         <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -3968,7 +3965,7 @@
         <v>136</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3993,13 @@
         <v>117968</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -4011,13 +4008,13 @@
         <v>117968</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4093,13 @@
         <v>149163</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -4111,13 +4108,13 @@
         <v>149163</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,10 +4142,10 @@
         <v>231625</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>145</v>
@@ -4160,10 +4157,10 @@
         <v>231625</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>145</v>
@@ -4565,7 +4562,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4586,7 +4583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86880F97-F363-4F2A-81A2-10B8141195AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C84798-6C88-45F2-8F62-0E97009CE664}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4824,10 +4821,10 @@
         <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4839,10 +4836,10 @@
         <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4867,13 @@
         <v>8717</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4885,13 +4882,13 @@
         <v>8717</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4967,13 @@
         <v>66415</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
@@ -4985,13 +4982,13 @@
         <v>66415</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5016,13 @@
         <v>129694</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -5034,13 +5031,13 @@
         <v>129694</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5065,13 @@
         <v>64719</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -5083,13 +5080,13 @@
         <v>64719</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5114,13 @@
         <v>42174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -5132,13 +5129,13 @@
         <v>42174</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,10 +5214,10 @@
         <v>155269</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>189</v>
@@ -5232,10 +5229,10 @@
         <v>155269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>189</v>
@@ -5321,7 +5318,7 @@
         <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -5336,7 +5333,7 @@
         <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5361,13 @@
         <v>72167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5379,13 +5376,13 @@
         <v>72167</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5461,13 @@
         <v>117459</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -5479,13 +5476,13 @@
         <v>117459</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5510,13 @@
         <v>212351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>203</v>
@@ -5528,13 +5525,13 @@
         <v>212351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5559,13 @@
         <v>115227</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -5577,13 +5574,13 @@
         <v>115227</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5608,13 @@
         <v>61931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -5626,13 +5623,13 @@
         <v>61931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,10 +5708,10 @@
         <v>175519</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>212</v>
@@ -5726,10 +5723,10 @@
         <v>175519</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>212</v>
@@ -5815,7 +5812,7 @@
         <v>217</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="M26" s="7">
         <v>135</v>
@@ -5830,7 +5827,7 @@
         <v>217</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5855,13 @@
         <v>97732</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="M27" s="7">
         <v>90</v>
@@ -5873,13 +5870,13 @@
         <v>97732</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="Q27" s="7" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5955,13 @@
         <v>530927</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M29" s="7">
         <v>484</v>
@@ -5973,13 +5970,13 @@
         <v>530927</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6004,13 @@
         <v>931197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M30" s="7">
         <v>888</v>
@@ -6022,13 +6019,13 @@
         <v>931197</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6053,13 @@
         <v>494240</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>478</v>
@@ -6071,13 +6068,13 @@
         <v>494240</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6102,13 @@
         <v>282721</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>270</v>
@@ -6120,13 +6117,13 @@
         <v>282721</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,7 +6177,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +6198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E207B-7F6F-4891-B78F-04AC732F64CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BC892F-10AC-4181-9086-8F8F38F77E59}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6218,7 +6215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6338,13 +6335,13 @@
         <v>21438</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -6353,13 +6350,13 @@
         <v>21438</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6384,13 @@
         <v>14159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -6402,13 +6399,13 @@
         <v>14159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6433,13 @@
         <v>9564</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -6451,13 +6448,13 @@
         <v>9564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6482,13 @@
         <v>7801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -6500,13 +6497,13 @@
         <v>7801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6582,13 @@
         <v>67824</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>132</v>
@@ -6600,13 +6597,13 @@
         <v>67824</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6631,13 @@
         <v>87482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -6649,13 +6646,13 @@
         <v>87482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,10 +6680,10 @@
         <v>49490</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>48</v>
@@ -6698,10 +6695,10 @@
         <v>49490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>48</v>
@@ -6732,13 +6729,13 @@
         <v>24156</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>38</v>
@@ -6747,13 +6744,13 @@
         <v>24156</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6829,13 @@
         <v>110043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -6847,13 +6844,13 @@
         <v>110043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6878,13 @@
         <v>159613</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M15" s="7">
         <v>244</v>
@@ -6896,13 +6893,13 @@
         <v>159613</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,13 +6927,13 @@
         <v>97088</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -6945,13 +6942,13 @@
         <v>97088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +6976,13 @@
         <v>44903</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -6994,13 +6991,13 @@
         <v>44903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,13 +7076,13 @@
         <v>114551</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -7094,13 +7091,13 @@
         <v>114551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7125,13 @@
         <v>112504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -7143,13 +7140,13 @@
         <v>112504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7174,13 @@
         <v>74384</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M21" s="7">
         <v>102</v>
@@ -7192,13 +7189,13 @@
         <v>74384</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7223,13 @@
         <v>53135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -7241,13 +7238,13 @@
         <v>53135</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7323,13 @@
         <v>181293</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M24" s="7">
         <v>273</v>
@@ -7341,13 +7338,13 @@
         <v>181293</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,13 +7372,13 @@
         <v>165473</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -7390,13 +7387,13 @@
         <v>165473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7421,13 @@
         <v>117745</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>157</v>
@@ -7439,13 +7436,13 @@
         <v>117745</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7470,13 @@
         <v>94198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="M27" s="7">
         <v>127</v>
@@ -7488,13 +7485,13 @@
         <v>94198</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7570,13 @@
         <v>495148</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M29" s="7">
         <v>798</v>
@@ -7588,13 +7585,13 @@
         <v>495148</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7619,13 @@
         <v>539232</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M30" s="7">
         <v>808</v>
@@ -7637,13 +7634,13 @@
         <v>539232</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7668,13 @@
         <v>348271</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M31" s="7">
         <v>490</v>
@@ -7686,13 +7683,13 @@
         <v>348271</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7717,13 @@
         <v>224194</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M32" s="7">
         <v>314</v>
@@ -7735,13 +7732,13 @@
         <v>224194</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,7 +7792,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E73D765-D4A1-4441-BD64-6808B90C6132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA244F8-E17C-4F2A-8D91-826CFF8F1957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2299FAFA-11B8-48BB-99E5-AC3CE187D7A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A26AB52-074C-43DE-8DCC-39BBBB5977AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="295">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>12,9%</t>
   </si>
   <si>
-    <t>34,09%</t>
+    <t>34,39%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>36,64%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>24,07%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,10 +116,10 @@
     <t>16,71%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,37 +131,37 @@
     <t>25,21%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
   </si>
   <si>
     <t>22,61%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -170,778 +170,760 @@
     <t>25,57%</t>
   </si>
   <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>25,67%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>33,56%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>12,38%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502FEADB-5613-4F69-8ED2-F26A3455D11E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B711BE-6DAB-4C81-A1A1-EBB07376675D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2533,7 +2515,7 @@
         <v>72</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>188</v>
@@ -2548,7 +2530,7 @@
         <v>72</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2558,13 @@
         <v>151575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M26" s="7">
         <v>146</v>
@@ -2591,13 +2573,13 @@
         <v>151575</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2607,13 @@
         <v>123467</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M27" s="7">
         <v>115</v>
@@ -2640,13 +2622,13 @@
         <v>123467</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2707,13 @@
         <v>421540</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M29" s="7">
         <v>410</v>
@@ -2740,13 +2722,13 @@
         <v>421540</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2756,13 @@
         <v>554054</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M30" s="7">
         <v>542</v>
@@ -2789,13 +2771,13 @@
         <v>554054</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2805,13 @@
         <v>471680</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M31" s="7">
         <v>460</v>
@@ -2838,13 +2820,13 @@
         <v>471680</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2854,13 @@
         <v>331836</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M32" s="7">
         <v>318</v>
@@ -2887,13 +2869,13 @@
         <v>331836</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,7 +2929,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2968,7 +2950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BD99A0-66BA-430A-B1C1-19FE8D900070}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8433771-24D9-4F1F-810A-162FBC21D1D5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2985,7 +2967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3105,13 +3087,13 @@
         <v>20252</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3120,13 +3102,13 @@
         <v>20252</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3136,13 @@
         <v>22552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3169,13 +3151,13 @@
         <v>22552</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3185,13 @@
         <v>10995</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3218,13 +3200,13 @@
         <v>10995</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3234,13 @@
         <v>8955</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3267,13 +3249,13 @@
         <v>8955</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3334,13 @@
         <v>83816</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>77</v>
@@ -3367,13 +3349,13 @@
         <v>83816</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,7 +3587,7 @@
         <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -3620,7 +3602,7 @@
         <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3630,13 @@
         <v>251065</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M15" s="7">
         <v>228</v>
@@ -3663,13 +3645,13 @@
         <v>251065</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3679,13 @@
         <v>175192</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -3712,13 +3694,13 @@
         <v>175192</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3728,13 @@
         <v>121703</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -3761,13 +3743,13 @@
         <v>121703</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3828,13 @@
         <v>81020</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -3861,13 +3843,13 @@
         <v>81020</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3877,13 @@
         <v>171664</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>151</v>
@@ -3910,13 +3892,13 @@
         <v>171664</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3926,13 @@
         <v>169108</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -3959,13 +3941,13 @@
         <v>169108</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3975,13 @@
         <v>117968</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -4008,13 +3990,13 @@
         <v>117968</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4075,13 @@
         <v>149163</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -4108,13 +4090,13 @@
         <v>149163</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4124,13 @@
         <v>231625</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>225</v>
@@ -4157,13 +4139,13 @@
         <v>231625</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4173,13 @@
         <v>175982</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>164</v>
@@ -4206,13 +4188,13 @@
         <v>175982</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4222,13 @@
         <v>102357</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M27" s="7">
         <v>94</v>
@@ -4255,13 +4237,13 @@
         <v>102357</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4322,13 @@
         <v>446289</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>411</v>
@@ -4355,13 +4337,13 @@
         <v>446289</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4371,13 @@
         <v>790350</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>731</v>
@@ -4404,13 +4386,13 @@
         <v>790350</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4420,13 @@
         <v>638729</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>586</v>
@@ -4453,13 +4435,13 @@
         <v>638729</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4469,13 @@
         <v>414556</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M32" s="7">
         <v>376</v>
@@ -4502,13 +4484,13 @@
         <v>414556</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,7 +4544,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4583,7 +4565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C84798-6C88-45F2-8F62-0E97009CE664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50318A4C-458A-4DFB-830F-0555E56B4A91}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4600,7 +4582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4720,13 +4702,13 @@
         <v>16265</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4735,13 +4717,13 @@
         <v>16265</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4751,13 @@
         <v>27816</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -4784,13 +4766,13 @@
         <v>27816</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4800,13 @@
         <v>14725</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4833,13 +4815,13 @@
         <v>14725</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4849,13 @@
         <v>8717</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4882,13 +4864,13 @@
         <v>8717</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4949,13 @@
         <v>66415</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
@@ -4982,13 +4964,13 @@
         <v>66415</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4998,13 @@
         <v>129694</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -5031,13 +5013,13 @@
         <v>129694</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5047,13 @@
         <v>64719</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -5080,13 +5062,13 @@
         <v>64719</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5096,13 @@
         <v>42174</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -5129,13 +5111,13 @@
         <v>42174</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5196,13 @@
         <v>155269</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>142</v>
@@ -5229,13 +5211,13 @@
         <v>155269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5245,13 @@
         <v>285822</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M15" s="7">
         <v>270</v>
@@ -5278,13 +5260,13 @@
         <v>285822</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5294,13 @@
         <v>153589</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -5327,13 +5309,13 @@
         <v>153589</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5343,13 @@
         <v>72167</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5376,13 +5358,13 @@
         <v>72167</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5443,13 @@
         <v>117459</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -5476,13 +5458,13 @@
         <v>117459</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5492,13 @@
         <v>212351</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>203</v>
@@ -5525,13 +5507,13 @@
         <v>212351</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5541,13 @@
         <v>115227</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -5574,13 +5556,13 @@
         <v>115227</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5590,13 @@
         <v>61931</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -5623,13 +5605,13 @@
         <v>61931</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5690,13 @@
         <v>175519</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M24" s="7">
         <v>157</v>
@@ -5723,13 +5705,13 @@
         <v>175519</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5739,13 @@
         <v>275514</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M25" s="7">
         <v>260</v>
@@ -5772,13 +5754,13 @@
         <v>275514</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5788,13 @@
         <v>145979</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M26" s="7">
         <v>135</v>
@@ -5821,13 +5803,13 @@
         <v>145979</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,7 +5843,7 @@
         <v>219</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="M27" s="7">
         <v>90</v>
@@ -5876,7 +5858,7 @@
         <v>219</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5937,13 @@
         <v>530927</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M29" s="7">
         <v>484</v>
@@ -5970,13 +5952,13 @@
         <v>530927</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +5986,13 @@
         <v>931197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M30" s="7">
         <v>888</v>
@@ -6019,13 +6001,13 @@
         <v>931197</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6035,13 @@
         <v>494240</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>478</v>
@@ -6068,13 +6050,13 @@
         <v>494240</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,10 +6084,10 @@
         <v>282721</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>230</v>
@@ -6117,10 +6099,10 @@
         <v>282721</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>230</v>
@@ -6177,7 +6159,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6198,7 +6180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BC892F-10AC-4181-9086-8F8F38F77E59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB3BF89-C828-4DB4-8930-D10B1AF3237C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6680,13 +6662,13 @@
         <v>49490</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -6695,13 +6677,13 @@
         <v>49490</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6711,13 @@
         <v>24156</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>38</v>
@@ -6744,13 +6726,13 @@
         <v>24156</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,10 +6814,10 @@
         <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -6847,10 +6829,10 @@
         <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6860,13 @@
         <v>159613</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="M15" s="7">
         <v>244</v>
@@ -6893,13 +6875,13 @@
         <v>159613</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,13 +6909,13 @@
         <v>97088</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -6942,13 +6924,13 @@
         <v>97088</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,13 +6958,13 @@
         <v>44903</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -6991,13 +6973,13 @@
         <v>44903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,13 +7058,13 @@
         <v>114551</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -7091,13 +7073,13 @@
         <v>114551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7107,13 @@
         <v>112504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -7140,13 +7122,13 @@
         <v>112504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,13 +7156,13 @@
         <v>74384</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M21" s="7">
         <v>102</v>
@@ -7189,13 +7171,13 @@
         <v>74384</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,13 +7205,13 @@
         <v>53135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -7238,13 +7220,13 @@
         <v>53135</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,13 +7305,13 @@
         <v>181293</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M24" s="7">
         <v>273</v>
@@ -7338,13 +7320,13 @@
         <v>181293</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,10 +7357,10 @@
         <v>244</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -7390,10 +7372,10 @@
         <v>244</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7403,13 @@
         <v>117745</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
         <v>157</v>
@@ -7436,13 +7418,13 @@
         <v>117745</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7452,13 @@
         <v>94198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M27" s="7">
         <v>127</v>
@@ -7485,13 +7467,13 @@
         <v>94198</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7552,13 @@
         <v>495148</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M29" s="7">
         <v>798</v>
@@ -7585,13 +7567,13 @@
         <v>495148</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,13 +7601,13 @@
         <v>539232</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M30" s="7">
         <v>808</v>
@@ -7634,13 +7616,13 @@
         <v>539232</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7650,13 @@
         <v>348271</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M31" s="7">
         <v>490</v>
@@ -7683,13 +7665,13 @@
         <v>348271</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7699,13 @@
         <v>224194</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>300</v>
+        <v>148</v>
       </c>
       <c r="M32" s="7">
         <v>314</v>
@@ -7732,13 +7714,13 @@
         <v>224194</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>300</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,7 +7774,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA244F8-E17C-4F2A-8D91-826CFF8F1957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE16B20-908D-47F1-B315-8FE2C10B9965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A26AB52-074C-43DE-8DCC-39BBBB5977AB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{84E4F99F-6C1B-400F-9FE3-3906F29927E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="254">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -77,93 +77,54 @@
     <t>—%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
   </si>
   <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -203,7 +164,7 @@
     <t>20,84%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>24,21%</t>
@@ -323,81 +284,48 @@
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
   </si>
   <si>
-    <t>32,27%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
     <t>38,04%</t>
   </si>
   <si>
@@ -530,73 +458,37 @@
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>23,28%</t>
@@ -737,193 +629,178 @@
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
   </si>
   <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
   </si>
   <si>
     <t>28,65%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1212,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B711BE-6DAB-4C81-A1A1-EBB07376675D}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A884F79F-5183-4F81-9698-6959E2289EF6}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1466,10 +1343,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="I4" s="7">
-        <v>11670</v>
+        <v>77796</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1481,10 +1358,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>11670</v>
+        <v>77796</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1515,10 +1392,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I5" s="7">
-        <v>18931</v>
+        <v>107432</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1530,10 +1407,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N5" s="7">
-        <v>18931</v>
+        <v>107432</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1564,10 +1441,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7">
-        <v>12436</v>
+        <v>71759</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>20</v>
@@ -1579,10 +1456,10 @@
         <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="N6" s="7">
-        <v>12436</v>
+        <v>71759</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>20</v>
@@ -1613,10 +1490,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>8637</v>
+        <v>57036</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
@@ -1628,10 +1505,10 @@
         <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>8637</v>
+        <v>57036</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>24</v>
@@ -1662,10 +1539,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="I8" s="7">
-        <v>51673</v>
+        <v>314023</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -1677,10 +1554,10 @@
         <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="N8" s="7">
-        <v>51673</v>
+        <v>314023</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -1713,10 +1590,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="I9" s="7">
-        <v>66126</v>
+        <v>126451</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>29</v>
@@ -1728,10 +1605,10 @@
         <v>31</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="N9" s="7">
-        <v>66126</v>
+        <v>126451</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>29</v>
@@ -1762,10 +1639,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="I10" s="7">
-        <v>88501</v>
+        <v>153641</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>32</v>
@@ -1777,10 +1654,10 @@
         <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="N10" s="7">
-        <v>88501</v>
+        <v>153641</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>32</v>
@@ -1811,10 +1688,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>59324</v>
+        <v>130025</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>35</v>
@@ -1826,10 +1703,10 @@
         <v>37</v>
       </c>
       <c r="M11" s="7">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="N11" s="7">
-        <v>59324</v>
+        <v>130025</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>35</v>
@@ -1860,10 +1737,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I12" s="7">
-        <v>48399</v>
+        <v>84399</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -1875,10 +1752,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="N12" s="7">
-        <v>48399</v>
+        <v>84399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>38</v>
@@ -1909,10 +1786,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>257</v>
+        <v>463</v>
       </c>
       <c r="I13" s="7">
-        <v>262350</v>
+        <v>494516</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -1924,10 +1801,10 @@
         <v>27</v>
       </c>
       <c r="M13" s="7">
-        <v>257</v>
+        <v>463</v>
       </c>
       <c r="N13" s="7">
-        <v>262350</v>
+        <v>494516</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -1960,10 +1837,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="I14" s="7">
-        <v>126451</v>
+        <v>91313</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>42</v>
@@ -1975,10 +1852,10 @@
         <v>44</v>
       </c>
       <c r="M14" s="7">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="N14" s="7">
-        <v>126451</v>
+        <v>91313</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>42</v>
@@ -2009,10 +1886,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>153641</v>
+        <v>100551</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -2024,10 +1901,10 @@
         <v>47</v>
       </c>
       <c r="M15" s="7">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="N15" s="7">
-        <v>153641</v>
+        <v>100551</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -2058,10 +1935,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I16" s="7">
-        <v>130025</v>
+        <v>118320</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>48</v>
@@ -2073,10 +1950,10 @@
         <v>50</v>
       </c>
       <c r="M16" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N16" s="7">
-        <v>130025</v>
+        <v>118320</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>48</v>
@@ -2107,10 +1984,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I17" s="7">
-        <v>84399</v>
+        <v>66934</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>51</v>
@@ -2122,10 +1999,10 @@
         <v>53</v>
       </c>
       <c r="M17" s="7">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>84399</v>
+        <v>66934</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>51</v>
@@ -2156,10 +2033,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="I18" s="7">
-        <v>494516</v>
+        <v>377118</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -2171,10 +2048,10 @@
         <v>27</v>
       </c>
       <c r="M18" s="7">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="N18" s="7">
-        <v>494516</v>
+        <v>377118</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -2207,10 +2084,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="I19" s="7">
-        <v>91313</v>
+        <v>125980</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>55</v>
@@ -2222,10 +2099,10 @@
         <v>57</v>
       </c>
       <c r="M19" s="7">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="N19" s="7">
-        <v>91313</v>
+        <v>125980</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>55</v>
@@ -2256,10 +2133,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="I20" s="7">
-        <v>100551</v>
+        <v>192430</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>58</v>
@@ -2271,10 +2148,10 @@
         <v>60</v>
       </c>
       <c r="M20" s="7">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="N20" s="7">
-        <v>100551</v>
+        <v>192430</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>58</v>
@@ -2305,10 +2182,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>118320</v>
+        <v>151575</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -2320,10 +2197,10 @@
         <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="N21" s="7">
-        <v>118320</v>
+        <v>151575</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>61</v>
@@ -2354,10 +2231,10 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="I22" s="7">
-        <v>66934</v>
+        <v>123467</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>64</v>
@@ -2369,10 +2246,10 @@
         <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="N22" s="7">
-        <v>66934</v>
+        <v>123467</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>64</v>
@@ -2403,10 +2280,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>382</v>
+        <v>570</v>
       </c>
       <c r="I23" s="7">
-        <v>377118</v>
+        <v>593452</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -2418,10 +2295,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>382</v>
+        <v>570</v>
       </c>
       <c r="N23" s="7">
-        <v>377118</v>
+        <v>593452</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -2435,7 +2312,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2454,34 +2331,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>121</v>
+        <v>410</v>
       </c>
       <c r="I24" s="7">
-        <v>125980</v>
+        <v>421540</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="M24" s="7">
-        <v>121</v>
+        <v>410</v>
       </c>
       <c r="N24" s="7">
-        <v>125980</v>
+        <v>421540</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,34 +2380,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>188</v>
+        <v>542</v>
       </c>
       <c r="I25" s="7">
-        <v>192430</v>
+        <v>554054</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="M25" s="7">
-        <v>188</v>
+        <v>542</v>
       </c>
       <c r="N25" s="7">
-        <v>192430</v>
+        <v>554054</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,34 +2429,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>146</v>
+        <v>460</v>
       </c>
       <c r="I26" s="7">
-        <v>151575</v>
+        <v>471680</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M26" s="7">
-        <v>146</v>
+        <v>460</v>
       </c>
       <c r="N26" s="7">
-        <v>151575</v>
+        <v>471680</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,34 +2478,34 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="I27" s="7">
-        <v>123467</v>
+        <v>331836</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="M27" s="7">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="N27" s="7">
-        <v>123467</v>
+        <v>331836</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,10 +2527,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>570</v>
+        <v>1730</v>
       </c>
       <c r="I28" s="7">
-        <v>593452</v>
+        <v>1779109</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -2665,10 +2542,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="7">
-        <v>570</v>
+        <v>1730</v>
       </c>
       <c r="N28" s="7">
-        <v>593452</v>
+        <v>1779109</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -2681,263 +2558,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>410</v>
-      </c>
-      <c r="I29" s="7">
-        <v>421540</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29" s="7">
-        <v>410</v>
-      </c>
-      <c r="N29" s="7">
-        <v>421540</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>542</v>
-      </c>
-      <c r="I30" s="7">
-        <v>554054</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30" s="7">
-        <v>542</v>
-      </c>
-      <c r="N30" s="7">
-        <v>554054</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>460</v>
-      </c>
-      <c r="I31" s="7">
-        <v>471680</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M31" s="7">
-        <v>460</v>
-      </c>
-      <c r="N31" s="7">
-        <v>471680</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>318</v>
-      </c>
-      <c r="I32" s="7">
-        <v>331836</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M32" s="7">
-        <v>318</v>
-      </c>
-      <c r="N32" s="7">
-        <v>331836</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1730</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1779110</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1730</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1779110</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>92</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2950,8 +2579,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8433771-24D9-4F1F-810A-162FBC21D1D5}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6436EBF-D9ED-42B4-8E32-A464F347A768}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2967,7 +2596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3081,34 +2710,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I4" s="7">
-        <v>20252</v>
+        <v>104068</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="7">
         <v>94</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="7">
-        <v>17</v>
-      </c>
       <c r="N4" s="7">
-        <v>20252</v>
+        <v>104068</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,34 +2759,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I5" s="7">
-        <v>22552</v>
+        <v>135995</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="N5" s="7">
-        <v>22552</v>
+        <v>135995</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,34 +2808,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="I6" s="7">
-        <v>10995</v>
+        <v>118447</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="N6" s="7">
-        <v>10995</v>
+        <v>118447</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,34 +2857,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>8955</v>
+        <v>72528</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="N7" s="7">
-        <v>8955</v>
+        <v>72528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,10 +2906,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="I8" s="7">
-        <v>62754</v>
+        <v>431039</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -3292,10 +2921,10 @@
         <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="N8" s="7">
-        <v>62754</v>
+        <v>431039</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -3328,34 +2957,34 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="I9" s="7">
-        <v>83816</v>
+        <v>112038</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="M9" s="7">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="N9" s="7">
-        <v>83816</v>
+        <v>112038</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,34 +3006,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="I10" s="7">
-        <v>113443</v>
+        <v>251065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="N10" s="7">
-        <v>113443</v>
+        <v>251065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,34 +3055,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="I11" s="7">
-        <v>107452</v>
+        <v>175192</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="N11" s="7">
-        <v>107452</v>
+        <v>175192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,34 +3104,34 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="I12" s="7">
-        <v>63573</v>
+        <v>121703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="M12" s="7">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="N12" s="7">
-        <v>63573</v>
+        <v>121703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,10 +3153,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>343</v>
+        <v>597</v>
       </c>
       <c r="I13" s="7">
-        <v>368285</v>
+        <v>659997</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -3539,10 +3168,10 @@
         <v>27</v>
       </c>
       <c r="M13" s="7">
-        <v>343</v>
+        <v>597</v>
       </c>
       <c r="N13" s="7">
-        <v>368285</v>
+        <v>659997</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -3575,34 +3204,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="I14" s="7">
-        <v>112038</v>
+        <v>81020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="N14" s="7">
-        <v>112038</v>
+        <v>81020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,34 +3253,34 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="I15" s="7">
-        <v>251065</v>
+        <v>171664</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="M15" s="7">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="N15" s="7">
-        <v>251065</v>
+        <v>171664</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,34 +3302,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I16" s="7">
-        <v>175192</v>
+        <v>169108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N16" s="7">
-        <v>175192</v>
+        <v>169108</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,34 +3351,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I17" s="7">
-        <v>121703</v>
+        <v>117968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N17" s="7">
-        <v>121703</v>
+        <v>117968</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,10 +3400,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>597</v>
+        <v>485</v>
       </c>
       <c r="I18" s="7">
-        <v>659997</v>
+        <v>539760</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -3786,10 +3415,10 @@
         <v>27</v>
       </c>
       <c r="M18" s="7">
-        <v>597</v>
+        <v>485</v>
       </c>
       <c r="N18" s="7">
-        <v>659997</v>
+        <v>539760</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -3822,34 +3451,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="I19" s="7">
-        <v>81020</v>
+        <v>149163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="N19" s="7">
-        <v>81020</v>
+        <v>149163</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,34 +3500,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="I20" s="7">
-        <v>171664</v>
+        <v>231625</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="N20" s="7">
-        <v>171664</v>
+        <v>231625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,34 +3549,34 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>169108</v>
+        <v>175982</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="M21" s="7">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="N21" s="7">
-        <v>169108</v>
+        <v>175982</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,34 +3598,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I22" s="7">
-        <v>117968</v>
+        <v>102357</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N22" s="7">
-        <v>117968</v>
+        <v>102357</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,10 +3647,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>485</v>
+        <v>624</v>
       </c>
       <c r="I23" s="7">
-        <v>539760</v>
+        <v>659128</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -4033,10 +3662,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>485</v>
+        <v>624</v>
       </c>
       <c r="N23" s="7">
-        <v>539760</v>
+        <v>659128</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -4050,7 +3679,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4069,34 +3698,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="I24" s="7">
-        <v>149163</v>
+        <v>446289</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="N24" s="7">
-        <v>149163</v>
+        <v>446289</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,34 +3747,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>225</v>
+        <v>731</v>
       </c>
       <c r="I25" s="7">
-        <v>231625</v>
+        <v>790350</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
-        <v>225</v>
+        <v>731</v>
       </c>
       <c r="N25" s="7">
-        <v>231625</v>
+        <v>790350</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,34 +3796,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>164</v>
+        <v>586</v>
       </c>
       <c r="I26" s="7">
-        <v>175982</v>
+        <v>638729</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
-        <v>164</v>
+        <v>586</v>
       </c>
       <c r="N26" s="7">
-        <v>175982</v>
+        <v>638729</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,34 +3845,34 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>94</v>
+        <v>376</v>
       </c>
       <c r="I27" s="7">
-        <v>102357</v>
+        <v>414556</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="M27" s="7">
-        <v>94</v>
+        <v>376</v>
       </c>
       <c r="N27" s="7">
-        <v>102357</v>
+        <v>414556</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,10 +3894,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>624</v>
+        <v>2104</v>
       </c>
       <c r="I28" s="7">
-        <v>659128</v>
+        <v>2289924</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -4280,10 +3909,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="7">
-        <v>624</v>
+        <v>2104</v>
       </c>
       <c r="N28" s="7">
-        <v>659128</v>
+        <v>2289924</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -4296,263 +3925,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>411</v>
-      </c>
-      <c r="I29" s="7">
-        <v>446289</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M29" s="7">
-        <v>411</v>
-      </c>
-      <c r="N29" s="7">
-        <v>446289</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>731</v>
-      </c>
-      <c r="I30" s="7">
-        <v>790350</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M30" s="7">
-        <v>731</v>
-      </c>
-      <c r="N30" s="7">
-        <v>790350</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>586</v>
-      </c>
-      <c r="I31" s="7">
-        <v>638729</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M31" s="7">
-        <v>586</v>
-      </c>
-      <c r="N31" s="7">
-        <v>638729</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>376</v>
-      </c>
-      <c r="I32" s="7">
-        <v>414556</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M32" s="7">
-        <v>376</v>
-      </c>
-      <c r="N32" s="7">
-        <v>414556</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2104</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2289924</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2289924</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>92</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4565,8 +3946,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50318A4C-458A-4DFB-830F-0555E56B4A91}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21669D7C-6ED7-4883-958F-982503D28FCD}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4582,7 +3963,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4696,34 +4077,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I4" s="7">
-        <v>16265</v>
+        <v>82680</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="N4" s="7">
-        <v>16265</v>
+        <v>82680</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,34 +4126,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="I5" s="7">
-        <v>27816</v>
+        <v>157509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N5" s="7">
-        <v>27816</v>
+        <v>157509</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,34 +4175,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="I6" s="7">
-        <v>14725</v>
+        <v>79444</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>14725</v>
+        <v>79444</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,34 +4224,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7">
-        <v>8717</v>
+        <v>50891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>8717</v>
+        <v>50891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,10 +4273,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="I8" s="7">
-        <v>67523</v>
+        <v>370525</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -4907,10 +4288,10 @@
         <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="N8" s="7">
-        <v>67523</v>
+        <v>370525</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -4943,34 +4324,34 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="I9" s="7">
-        <v>66415</v>
+        <v>155269</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>66415</v>
+        <v>155269</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,34 +4373,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="I10" s="7">
-        <v>129694</v>
+        <v>285822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="N10" s="7">
-        <v>129694</v>
+        <v>285822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,34 +4422,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="I11" s="7">
-        <v>64719</v>
+        <v>153589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="N11" s="7">
-        <v>64719</v>
+        <v>153589</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,34 +4471,34 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>42174</v>
+        <v>72167</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>42174</v>
+        <v>72167</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,10 +4520,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>299</v>
+        <v>629</v>
       </c>
       <c r="I13" s="7">
-        <v>303002</v>
+        <v>666848</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -5154,10 +4535,10 @@
         <v>27</v>
       </c>
       <c r="M13" s="7">
-        <v>299</v>
+        <v>629</v>
       </c>
       <c r="N13" s="7">
-        <v>303002</v>
+        <v>666848</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -5190,34 +4571,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="I14" s="7">
-        <v>155269</v>
+        <v>117459</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>155269</v>
+        <v>117459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,34 +4620,34 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="I15" s="7">
-        <v>285822</v>
+        <v>212351</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="M15" s="7">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="N15" s="7">
-        <v>285822</v>
+        <v>212351</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,34 +4669,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="I16" s="7">
-        <v>153589</v>
+        <v>115227</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="N16" s="7">
-        <v>153589</v>
+        <v>115227</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,34 +4718,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I17" s="7">
-        <v>72167</v>
+        <v>61931</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N17" s="7">
-        <v>72167</v>
+        <v>61931</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,10 +4767,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>629</v>
+        <v>480</v>
       </c>
       <c r="I18" s="7">
-        <v>666848</v>
+        <v>506968</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -5401,10 +4782,10 @@
         <v>27</v>
       </c>
       <c r="M18" s="7">
-        <v>629</v>
+        <v>480</v>
       </c>
       <c r="N18" s="7">
-        <v>666848</v>
+        <v>506968</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -5437,34 +4818,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="I19" s="7">
-        <v>117459</v>
+        <v>175519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="N19" s="7">
-        <v>117459</v>
+        <v>175519</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,34 +4867,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="I20" s="7">
-        <v>212351</v>
+        <v>275514</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="N20" s="7">
-        <v>212351</v>
+        <v>275514</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,34 +4916,34 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I21" s="7">
-        <v>115227</v>
+        <v>145979</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="M21" s="7">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="N21" s="7">
-        <v>115227</v>
+        <v>145979</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,34 +4965,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I22" s="7">
-        <v>61931</v>
+        <v>97732</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="N22" s="7">
-        <v>61931</v>
+        <v>97732</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,10 +5014,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>480</v>
+        <v>642</v>
       </c>
       <c r="I23" s="7">
-        <v>506968</v>
+        <v>694744</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -5648,10 +5029,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>480</v>
+        <v>642</v>
       </c>
       <c r="N23" s="7">
-        <v>506968</v>
+        <v>694744</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -5665,7 +5046,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5684,34 +5065,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>157</v>
+        <v>484</v>
       </c>
       <c r="I24" s="7">
-        <v>175519</v>
+        <v>530927</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="M24" s="7">
-        <v>157</v>
+        <v>484</v>
       </c>
       <c r="N24" s="7">
-        <v>175519</v>
+        <v>530927</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,34 +5114,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>260</v>
+        <v>888</v>
       </c>
       <c r="I25" s="7">
-        <v>275514</v>
+        <v>931197</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="M25" s="7">
-        <v>260</v>
+        <v>888</v>
       </c>
       <c r="N25" s="7">
-        <v>275514</v>
+        <v>931197</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,34 +5163,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="I26" s="7">
-        <v>145979</v>
+        <v>494240</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="N26" s="7">
-        <v>145979</v>
+        <v>494240</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,34 +5212,34 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="I27" s="7">
-        <v>97732</v>
+        <v>282721</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="N27" s="7">
-        <v>97732</v>
+        <v>282721</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,10 +5261,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>642</v>
+        <v>2120</v>
       </c>
       <c r="I28" s="7">
-        <v>694744</v>
+        <v>2239086</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -5895,10 +5276,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="7">
-        <v>642</v>
+        <v>2120</v>
       </c>
       <c r="N28" s="7">
-        <v>694744</v>
+        <v>2239086</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -5911,263 +5292,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>484</v>
-      </c>
-      <c r="I29" s="7">
-        <v>530927</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M29" s="7">
-        <v>484</v>
-      </c>
-      <c r="N29" s="7">
-        <v>530927</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>888</v>
-      </c>
-      <c r="I30" s="7">
-        <v>931197</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M30" s="7">
-        <v>888</v>
-      </c>
-      <c r="N30" s="7">
-        <v>931197</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>478</v>
-      </c>
-      <c r="I31" s="7">
-        <v>494240</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M31" s="7">
-        <v>478</v>
-      </c>
-      <c r="N31" s="7">
-        <v>494240</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>270</v>
-      </c>
-      <c r="I32" s="7">
-        <v>282721</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M32" s="7">
-        <v>270</v>
-      </c>
-      <c r="N32" s="7">
-        <v>282721</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2120</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2239086</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2120</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2239086</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>92</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6180,8 +5313,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB3BF89-C828-4DB4-8930-D10B1AF3237C}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BDD776-259E-4200-B2E3-A136ACBA2FF1}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6197,7 +5330,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6311,34 +5444,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="I4" s="7">
-        <v>21438</v>
+        <v>85045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="N4" s="7">
-        <v>21438</v>
+        <v>85045</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,34 +5493,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>14159</v>
+        <v>95339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="N5" s="7">
-        <v>14159</v>
+        <v>95339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,34 +5542,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I6" s="7">
-        <v>9564</v>
+        <v>55732</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="N6" s="7">
-        <v>9564</v>
+        <v>55732</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,34 +5591,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>7801</v>
+        <v>30667</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>7801</v>
+        <v>30667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,10 +5640,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>98</v>
+        <v>498</v>
       </c>
       <c r="I8" s="7">
-        <v>52963</v>
+        <v>266782</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -6522,10 +5655,10 @@
         <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>98</v>
+        <v>498</v>
       </c>
       <c r="N8" s="7">
-        <v>52963</v>
+        <v>266782</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -6558,34 +5691,34 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="I9" s="7">
-        <v>67824</v>
+        <v>102580</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="M9" s="7">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>67824</v>
+        <v>102580</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,34 +5740,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="I10" s="7">
-        <v>87482</v>
+        <v>146663</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="N10" s="7">
-        <v>87482</v>
+        <v>146663</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,34 +5789,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="I11" s="7">
-        <v>49490</v>
+        <v>88287</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="N11" s="7">
-        <v>49490</v>
+        <v>88287</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,34 +5838,34 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I12" s="7">
-        <v>24156</v>
+        <v>41509</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="N12" s="7">
-        <v>24156</v>
+        <v>41509</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,10 +5887,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="I13" s="7">
-        <v>228952</v>
+        <v>379039</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -6769,10 +5902,10 @@
         <v>27</v>
       </c>
       <c r="M13" s="7">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="N13" s="7">
-        <v>228952</v>
+        <v>379039</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -6805,34 +5938,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="I14" s="7">
-        <v>110043</v>
+        <v>129511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="N14" s="7">
-        <v>110043</v>
+        <v>129511</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,34 +5987,34 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="I15" s="7">
-        <v>159613</v>
+        <v>104426</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="M15" s="7">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="N15" s="7">
-        <v>159613</v>
+        <v>104426</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,34 +6036,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="I16" s="7">
-        <v>97088</v>
+        <v>68219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="N16" s="7">
-        <v>97088</v>
+        <v>68219</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,34 +6085,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I17" s="7">
-        <v>44903</v>
+        <v>49983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N17" s="7">
-        <v>44903</v>
+        <v>49983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,10 +6134,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>640</v>
+        <v>497</v>
       </c>
       <c r="I18" s="7">
-        <v>411647</v>
+        <v>352139</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -7016,10 +6149,10 @@
         <v>27</v>
       </c>
       <c r="M18" s="7">
-        <v>640</v>
+        <v>497</v>
       </c>
       <c r="N18" s="7">
-        <v>411647</v>
+        <v>352139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -7052,34 +6185,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="I19" s="7">
-        <v>114551</v>
+        <v>221886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="N19" s="7">
-        <v>114551</v>
+        <v>221886</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,34 +6234,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="I20" s="7">
-        <v>112504</v>
+        <v>151990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="N20" s="7">
-        <v>112504</v>
+        <v>151990</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,34 +6283,34 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="I21" s="7">
-        <v>74384</v>
+        <v>106151</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="M21" s="7">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="N21" s="7">
-        <v>74384</v>
+        <v>106151</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,34 +6332,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="I22" s="7">
-        <v>53135</v>
+        <v>87472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="M22" s="7">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="N22" s="7">
-        <v>53135</v>
+        <v>87472</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,10 +6381,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>497</v>
+        <v>775</v>
       </c>
       <c r="I23" s="7">
-        <v>354574</v>
+        <v>567498</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -7263,10 +6396,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>497</v>
+        <v>775</v>
       </c>
       <c r="N23" s="7">
-        <v>354574</v>
+        <v>567498</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -7280,7 +6413,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7299,34 +6432,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>273</v>
+        <v>798</v>
       </c>
       <c r="I24" s="7">
-        <v>181293</v>
+        <v>539022</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M24" s="7">
-        <v>273</v>
+        <v>798</v>
       </c>
       <c r="N24" s="7">
-        <v>181293</v>
+        <v>539022</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,34 +6481,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>218</v>
+        <v>808</v>
       </c>
       <c r="I25" s="7">
-        <v>165473</v>
+        <v>498418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="M25" s="7">
-        <v>218</v>
+        <v>808</v>
       </c>
       <c r="N25" s="7">
-        <v>165473</v>
+        <v>498418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,34 +6530,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>157</v>
+        <v>490</v>
       </c>
       <c r="I26" s="7">
-        <v>117745</v>
+        <v>318388</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="M26" s="7">
-        <v>157</v>
+        <v>490</v>
       </c>
       <c r="N26" s="7">
-        <v>117745</v>
+        <v>318388</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,34 +6579,34 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="I27" s="7">
-        <v>94198</v>
+        <v>209630</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="M27" s="7">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="N27" s="7">
-        <v>94198</v>
+        <v>209630</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,10 +6628,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>775</v>
+        <v>2410</v>
       </c>
       <c r="I28" s="7">
-        <v>558709</v>
+        <v>1565458</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -7510,10 +6643,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="7">
-        <v>775</v>
+        <v>2410</v>
       </c>
       <c r="N28" s="7">
-        <v>558709</v>
+        <v>1565458</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -7526,263 +6659,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>798</v>
-      </c>
-      <c r="I29" s="7">
-        <v>495148</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M29" s="7">
-        <v>798</v>
-      </c>
-      <c r="N29" s="7">
-        <v>495148</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>808</v>
-      </c>
-      <c r="I30" s="7">
-        <v>539232</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M30" s="7">
-        <v>808</v>
-      </c>
-      <c r="N30" s="7">
-        <v>539232</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>490</v>
-      </c>
-      <c r="I31" s="7">
-        <v>348271</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M31" s="7">
-        <v>490</v>
-      </c>
-      <c r="N31" s="7">
-        <v>348271</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>314</v>
-      </c>
-      <c r="I32" s="7">
-        <v>224194</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M32" s="7">
-        <v>314</v>
-      </c>
-      <c r="N32" s="7">
-        <v>224194</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2410</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1606846</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2410</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1606846</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>92</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
